--- a/data/Floor=2/Location=Patio/Device=01/M10+_device01_08-21-2024 15:55:06.xlsx
+++ b/data/Floor=2/Location=Patio/Device=01/M10+_device01_08-21-2024 15:55:06.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jack/Downloads/M10+_device01_08-21-2024 15:55:"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jack/Developer/Personal/Trellis Air Quality/trellis-aq/data/Floor=2/Location=Patio/Device=01/M10+_device01_08-21-2024 15:55:"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6607982B-BC0B-6248-ADDC-E6B18F52B1CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7789ED52-CD75-A147-91E0-BC81CA3BB45D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="880" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="81">
   <si>
     <t>NO.</t>
   </si>
@@ -55,9 +55,6 @@
     <t>47</t>
   </si>
   <si>
-    <t>48</t>
-  </si>
-  <si>
     <t>10.0</t>
   </si>
   <si>
@@ -163,21 +160,9 @@
     <t>2024-08-21 14:00:00(+08:00)</t>
   </si>
   <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>2024-08-21 15:00:00(+08:00)</t>
-  </si>
-  <si>
-    <t>8.7</t>
-  </si>
-  <si>
     <t>AQI</t>
   </si>
   <si>
-    <t>67</t>
-  </si>
-  <si>
     <t>72</t>
   </si>
   <si>
@@ -229,9 +214,6 @@
     <t>638</t>
   </si>
   <si>
-    <t>647</t>
-  </si>
-  <si>
     <t>TVOC</t>
   </si>
   <si>
@@ -245,9 +227,6 @@
   </si>
   <si>
     <t>80.6</t>
-  </si>
-  <si>
-    <t>78.6</t>
   </si>
   <si>
     <t>79.7</t>
@@ -635,9 +614,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -662,331 +643,305 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="D7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="D8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="F8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="D10" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="G10" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="C11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="C12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
